--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.1_发现组.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.1_发现组.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>No</t>
   </si>
@@ -140,6 +140,14 @@
   </si>
   <si>
     <t>ALL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>子账号解锁功能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭堃</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -791,7 +799,7 @@
   <dimension ref="A1:T184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1004,17 +1012,37 @@
       <c r="T4" s="28"/>
     </row>
     <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="16">
+        <v>42627</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="16">
+        <v>42627</v>
+      </c>
       <c r="I5" s="15"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="15"/>
+      <c r="J5" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="L5" s="15"/>
       <c r="M5" s="24"/>
       <c r="N5" s="16"/>

--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.1_发现组.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.1_发现组.xlsx
@@ -12,11 +12,11 @@
     <workbookView xWindow="0" yWindow="30" windowWidth="28695" windowHeight="13020"/>
   </bookViews>
   <sheets>
-    <sheet name="版本5.0.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="版本5.0.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.1 新特性|Fix Bug'!$A$1:$S$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.2 新特性|Fix Bug'!$A$1:$S$1</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>No</t>
   </si>
@@ -143,11 +143,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>子账号解锁功能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭堃</t>
+    <t>吕崇新</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -799,7 +795,7 @@
   <dimension ref="A1:T184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -996,7 +992,7 @@
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="24" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>28</v>
@@ -1012,37 +1008,17 @@
       <c r="T4" s="28"/>
     </row>
     <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="14">
-        <v>4</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="16">
-        <v>42627</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="16">
-        <v>42627</v>
-      </c>
+      <c r="A5" s="14"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>28</v>
-      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="24"/>
       <c r="N5" s="16"/>
